--- a/apps/rahat-ui/public/files/stakeholder-sample.xlsx
+++ b/apps/rahat-ui/public/files/stakeholder-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Stakeholders Name</t>
   </si>
@@ -45,6 +45,24 @@
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sample stakeholder name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rumsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kathmandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication Manager, Cash Assistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tester@mailinator.com</t>
+  </si>
 </sst>
 </file>
 
@@ -52,9 +70,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -103,6 +121,13 @@
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF020817"/>
+      <name val="__GeistSans_fb8f2c"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -199,11 +224,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,7 +298,7 @@
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF020817"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
@@ -291,16 +316,16 @@
   </sheetPr>
   <dimension ref="A1:V1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="94" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.44"/>
@@ -348,9 +373,31 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F2" s="7"/>
-      <c r="H2" s="8"/>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="n">
+        <v>9686565652</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -368,7 +415,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F3" s="9"/>
-      <c r="H3" s="6"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -385,8 +432,8 @@
       <c r="V3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F4" s="9"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="8"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -404,7 +451,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F5" s="9"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="8"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -422,7 +469,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -440,7 +487,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="9"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -457,8 +504,8 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="9"/>
-      <c r="H8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -476,7 +523,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="9"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -493,14 +540,8 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -517,14 +558,8 @@
       <c r="V10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -541,14 +576,8 @@
       <c r="V11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -565,14 +594,8 @@
       <c r="V12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -589,14 +612,8 @@
       <c r="V13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -613,14 +630,8 @@
       <c r="V14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -637,14 +648,8 @@
       <c r="V15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -661,14 +666,8 @@
       <c r="V16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -685,14 +684,8 @@
       <c r="V17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
@@ -709,14 +702,8 @@
       <c r="V18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -733,14 +720,8 @@
       <c r="V19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
@@ -757,14 +738,8 @@
       <c r="V20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -781,14 +756,8 @@
       <c r="V21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -805,14 +774,8 @@
       <c r="V22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="H23" s="8"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -829,14 +792,8 @@
       <c r="V23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="8"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -853,14 +810,8 @@
       <c r="V24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
@@ -877,14 +828,8 @@
       <c r="V25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -901,14 +846,8 @@
       <c r="V26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
@@ -925,14 +864,8 @@
       <c r="V27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -949,14 +882,8 @@
       <c r="V28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -973,14 +900,8 @@
       <c r="V29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -997,14 +918,8 @@
       <c r="V30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
@@ -24277,6 +24192,15 @@
       <c r="V1000" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" error="Phone number should be valid 10 digit number" errorStyle="stop" errorTitle="phone number should be valid" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F1:F1002" type="whole">
+      <formula1>9600000000</formula1>
+      <formula2>9990000000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="tester@mailinator.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
